--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProAbled\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFE5E2A-50FD-4CD7-A99D-E241DEB60579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954A4C1-A3BA-4460-8EB9-1BDC6F2D26EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,15 +51,6 @@
     <t>john</t>
   </si>
   <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>nam3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
     <t>dad</t>
   </si>
   <si>
@@ -73,6 +64,15 @@
   </si>
   <si>
     <t>luv</t>
+  </si>
+  <si>
+    <t>johnny</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>ziad</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,17 +125,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -148,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,7 +423,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +505,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProAbled\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954A4C1-A3BA-4460-8EB9-1BDC6F2D26EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557FB5A-D63D-4EF9-B456-EC7E85B1AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,56 +30,56 @@
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rony</t>
-  </si>
-  <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>aso</t>
-  </si>
-  <si>
-    <t>lelo</t>
-  </si>
-  <si>
-    <t>martin</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>dad</t>
-  </si>
-  <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>marylin</t>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>luv</t>
-  </si>
-  <si>
-    <t>johnny</t>
-  </si>
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>ziad</t>
+    <t>src</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>the best shoes on the market</t>
+  </si>
+  <si>
+    <t>comfiest socks ever</t>
+  </si>
+  <si>
+    <t>camo for camo</t>
+  </si>
+  <si>
+    <t>social anti social</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/vectors/shoes-footwear-sneakers-fashion-153310/</t>
+  </si>
+  <si>
+    <t>https://link.pixabay.com/?ua=cd3%3Dimage%26cd7%3Den%253Asocks%253ALBN%26ec%3Dapi_ad%26ea%3Dnavigate%26el%3Dgetty%26tid%3DUA-20223345-1%26dr%3Dhttps%253A%252F%252Fpixabay.com%252Fimages%252Fsearch%252Fshoes%252F&amp;sp=%2524%3Dadvertisement_clicked%26action%3Dnavigate%26ad_partner%3Dgetty%26ad_content%3Dapi_ad%26ad_type%3D%26media_type%3Dimage%26media_id%3D&amp;next=https%3A%2F%2Fwww.istockphoto.com%2Fphoto%2Fred-white-striped-socks-gm1149383049-310733927%3Futm_source%3Dpixabay%26utm_medium%3Daffiliate%26utm_campaign%3DSRP_image_sponsored%26utm_content%3Dhttps%253A%252F%252Fpixabay.com%252Fimages%252Fsearch%252Fsocks%252F%253Fmanual_search%253D1%26utm_term%3Dsocks&amp;hash=4bed42abc8bfcded9124626a41edd2f7fe767f04&amp;=</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1221134337/photo/front-views-black-trousers.jpg?s=612x612&amp;w=is&amp;k=20&amp;c=c4kWy38fraTCesuQCYCh0HSqWyvQ25VuLEBzEwsLWHg=</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1151955707/photo/mens-black-blank-t-shirt-template-from-two-sides-natural-shape-on-invisible-mannequin-for.jpg?s=612x612&amp;w=is&amp;k=20&amp;c=Pui62jfOP_ciVJIyQNTj6AbN2h3RvaNhc6XPNauBNlw=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,22 +87,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -110,38 +112,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,135 +412,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{ECD8AB09-DC39-428E-8397-91E560956344}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProAbled\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6557FB5A-D63D-4EF9-B456-EC7E85B1AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A35ED6-E616-4117-B913-B0F4500B2704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,13 +66,13 @@
     <t>https://pixabay.com/vectors/shoes-footwear-sneakers-fashion-153310/</t>
   </si>
   <si>
-    <t>https://link.pixabay.com/?ua=cd3%3Dimage%26cd7%3Den%253Asocks%253ALBN%26ec%3Dapi_ad%26ea%3Dnavigate%26el%3Dgetty%26tid%3DUA-20223345-1%26dr%3Dhttps%253A%252F%252Fpixabay.com%252Fimages%252Fsearch%252Fshoes%252F&amp;sp=%2524%3Dadvertisement_clicked%26action%3Dnavigate%26ad_partner%3Dgetty%26ad_content%3Dapi_ad%26ad_type%3D%26media_type%3Dimage%26media_id%3D&amp;next=https%3A%2F%2Fwww.istockphoto.com%2Fphoto%2Fred-white-striped-socks-gm1149383049-310733927%3Futm_source%3Dpixabay%26utm_medium%3Daffiliate%26utm_campaign%3DSRP_image_sponsored%26utm_content%3Dhttps%253A%252F%252Fpixabay.com%252Fimages%252Fsearch%252Fsocks%252F%253Fmanual_search%253D1%26utm_term%3Dsocks&amp;hash=4bed42abc8bfcded9124626a41edd2f7fe767f04&amp;=</t>
-  </si>
-  <si>
     <t>https://media.istockphoto.com/id/1221134337/photo/front-views-black-trousers.jpg?s=612x612&amp;w=is&amp;k=20&amp;c=c4kWy38fraTCesuQCYCh0HSqWyvQ25VuLEBzEwsLWHg=</t>
   </si>
   <si>
     <t>https://media.istockphoto.com/id/1151955707/photo/mens-black-blank-t-shirt-template-from-two-sides-natural-shape-on-invisible-mannequin-for.jpg?s=612x612&amp;w=is&amp;k=20&amp;c=Pui62jfOP_ciVJIyQNTj6AbN2h3RvaNhc6XPNauBNlw=</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1149383049/photo/red-white-striped-socks.jpg?s=612x612&amp;w=is&amp;k=20&amp;c=7rgSqHjkDIArd9Pvn9bLY97XNIzrT_VYqu6j54t99B4=</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -453,8 +455,8 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -468,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -482,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -558,6 +560,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{ECD8AB09-DC39-428E-8397-91E560956344}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1F614258-B88C-4D55-80AB-A1AE33CB2D0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
